--- a/app/Licenciatura_em_Engenharia_Electronica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Engenharia_Electronica_Pos_Laboral.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Maria Rosa JosÉ Cumbane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>Estevao Xerindza</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102273205C</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>Ilda Da Conceicao C.</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100891738C</t>
   </si>
   <si>
@@ -352,9 +343,6 @@
     <t>Ilda C. M. Pascoal</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -511,9 +499,6 @@
     <t>Lucia Impune</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>040100327372B</t>
   </si>
   <si>
@@ -538,9 +523,6 @@
     <t>Nora Francisco Macuacua</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100018478B</t>
   </si>
   <si>
@@ -649,9 +631,6 @@
     <t>Etelvina Filimone Mujovo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>110100896690J</t>
   </si>
   <si>
@@ -955,9 +934,6 @@
     <t>Rita Joaquim Cossa</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110100643654M</t>
   </si>
   <si>
@@ -1274,9 +1250,6 @@
   </si>
   <si>
     <t>Saiana Rachide Icuata</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
   </si>
   <si>
     <t>070101610617N</t>
@@ -2587,7 +2560,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2603,7 +2576,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2619,7 +2592,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2635,7 +2608,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2651,7 +2624,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2666,9 +2639,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2676,7 +2647,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2687,7 +2658,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2696,7 +2667,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2708,7 +2679,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2716,7 +2687,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2812,7 +2783,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2855,7 +2826,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3182,7 +3153,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3198,7 +3169,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3214,7 +3185,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3230,7 +3201,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3246,7 +3217,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3261,9 +3232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3271,7 +3240,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3282,7 +3251,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3291,7 +3260,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3303,7 +3272,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3311,7 +3280,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3407,7 +3376,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3450,7 +3419,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3777,7 +3746,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3793,7 +3762,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3809,7 +3778,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3825,7 +3794,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3841,7 +3810,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3856,9 +3825,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3866,7 +3833,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3877,7 +3844,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3886,7 +3853,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3898,7 +3865,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3906,7 +3873,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4002,7 +3969,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4045,7 +4012,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4372,7 +4339,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4388,7 +4355,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4404,7 +4371,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4420,7 +4387,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4436,7 +4403,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4451,9 +4418,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4461,7 +4426,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4472,7 +4437,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4481,7 +4446,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4493,7 +4458,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4501,7 +4466,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4597,7 +4562,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4640,7 +4605,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4967,7 +4932,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4983,7 +4948,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4999,7 +4964,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5015,7 +4980,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5031,7 +4996,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5046,9 +5011,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5056,7 +5019,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5067,7 +5030,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5076,7 +5039,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5088,7 +5051,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5096,7 +5059,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5192,7 +5155,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5235,7 +5198,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5562,7 +5525,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5578,7 +5541,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5594,7 +5557,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5610,7 +5573,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5626,7 +5589,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5641,9 +5604,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5651,7 +5612,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5662,7 +5623,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5671,7 +5632,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5683,7 +5644,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5691,7 +5652,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5830,7 +5791,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6157,7 +6118,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6173,7 +6134,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6189,7 +6150,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6205,7 +6166,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6221,7 +6182,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6236,9 +6197,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6246,7 +6205,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6257,7 +6216,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6266,7 +6225,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6278,7 +6237,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6286,7 +6245,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6382,7 +6341,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6425,7 +6384,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6752,7 +6711,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6768,7 +6727,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6784,7 +6743,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6800,7 +6759,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6816,7 +6775,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6831,9 +6790,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6841,7 +6798,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6852,7 +6809,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6861,7 +6818,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6873,7 +6830,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6881,7 +6838,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6977,7 +6934,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7020,7 +6977,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7347,7 +7304,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7363,7 +7320,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7379,7 +7336,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7395,7 +7352,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7411,7 +7368,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7426,9 +7383,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7436,7 +7391,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7447,7 +7402,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7456,7 +7411,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7468,7 +7423,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7572,7 +7527,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7615,7 +7570,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7942,7 +7897,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7958,7 +7913,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7974,7 +7929,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7990,7 +7945,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8006,7 +7961,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8021,9 +7976,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8031,7 +7984,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8042,7 +7995,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8051,7 +8004,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8063,7 +8016,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8071,7 +8024,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8167,7 +8120,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8210,7 +8163,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8616,9 +8569,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8626,7 +8577,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8637,7 +8588,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8646,7 +8597,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8658,7 +8609,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8666,7 +8617,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8762,7 +8713,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8805,7 +8756,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9132,7 +9083,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9148,7 +9099,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9164,7 +9115,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9180,7 +9131,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9196,7 +9147,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9211,9 +9162,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>193</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9221,7 +9170,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9232,7 +9181,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9241,7 +9190,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9253,7 +9202,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9261,7 +9210,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9357,7 +9306,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9400,7 +9349,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9727,7 +9676,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9743,7 +9692,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9759,7 +9708,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9775,7 +9724,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9791,7 +9740,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9806,9 +9755,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9816,7 +9763,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9827,7 +9774,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9836,7 +9783,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9848,7 +9795,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9856,7 +9803,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9952,7 +9899,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9995,7 +9942,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10322,7 +10269,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10338,7 +10285,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10354,7 +10301,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10370,7 +10317,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10386,7 +10333,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10401,9 +10348,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10411,7 +10356,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10422,7 +10367,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10431,7 +10376,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10443,7 +10388,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10547,7 +10492,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10590,7 +10535,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10917,7 +10862,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10933,7 +10878,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10949,7 +10894,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10965,7 +10910,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10981,7 +10926,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10996,9 +10941,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11006,7 +10949,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11017,7 +10960,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11026,7 +10969,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11038,7 +10981,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11046,7 +10989,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11142,7 +11085,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11185,7 +11128,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11512,7 +11455,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11528,7 +11471,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11544,7 +11487,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11560,7 +11503,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11576,7 +11519,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11591,9 +11534,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11601,7 +11542,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11612,7 +11553,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11621,7 +11562,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11633,7 +11574,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11641,7 +11582,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11737,7 +11678,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11780,7 +11721,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12107,7 +12048,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12123,7 +12064,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12139,7 +12080,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12155,7 +12096,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12171,7 +12112,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12186,9 +12127,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12196,7 +12135,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12207,7 +12146,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12216,7 +12155,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12228,7 +12167,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12236,7 +12175,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12332,7 +12271,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12375,7 +12314,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12702,7 +12641,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12718,7 +12657,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12734,7 +12673,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12750,7 +12689,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12766,7 +12705,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12781,9 +12720,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12791,7 +12728,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12802,7 +12739,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12811,7 +12748,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12823,7 +12760,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12831,7 +12768,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12927,7 +12864,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12970,7 +12907,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13297,7 +13234,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13313,7 +13250,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13329,7 +13266,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13345,7 +13282,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13361,7 +13298,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13376,9 +13313,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13386,7 +13321,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13397,7 +13332,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13406,7 +13341,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13418,7 +13353,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13426,7 +13361,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13522,7 +13457,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13565,7 +13500,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13892,7 +13827,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13908,7 +13843,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13924,7 +13859,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13940,7 +13875,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13956,7 +13891,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13971,9 +13906,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13981,7 +13914,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13992,7 +13925,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14001,7 +13934,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14013,7 +13946,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14021,7 +13954,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14117,7 +14050,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14160,7 +14093,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14487,7 +14420,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14503,7 +14436,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14519,7 +14452,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14535,7 +14468,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14551,7 +14484,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14566,9 +14499,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14576,7 +14507,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14587,7 +14518,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14596,7 +14527,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14608,7 +14539,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14616,7 +14547,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14712,7 +14643,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14755,7 +14686,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15082,7 +15013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15098,7 +15029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15114,7 +15045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15130,7 +15061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15159,9 +15090,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15169,7 +15098,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15180,7 +15109,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15189,7 +15118,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15201,7 +15130,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15209,7 +15138,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15305,7 +15234,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15348,7 +15277,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15675,7 +15604,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15691,7 +15620,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15707,7 +15636,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15723,7 +15652,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15739,7 +15668,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15754,9 +15683,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15764,7 +15691,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15775,7 +15702,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15784,7 +15711,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15796,7 +15723,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15804,7 +15731,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15900,7 +15827,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15943,7 +15870,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16270,7 +16197,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16286,7 +16213,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16302,7 +16229,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16318,7 +16245,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16334,7 +16261,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16349,9 +16276,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16359,7 +16284,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16370,7 +16295,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16379,7 +16304,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16391,7 +16316,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16399,7 +16324,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16495,7 +16420,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16538,7 +16463,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16865,7 +16790,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16881,7 +16806,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16897,7 +16822,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16913,7 +16838,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16929,7 +16854,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16944,9 +16869,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16954,7 +16877,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16965,7 +16888,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16974,7 +16897,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16986,7 +16909,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16994,7 +16917,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17090,7 +17013,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17133,7 +17056,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17460,7 +17383,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17476,7 +17399,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17492,7 +17415,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17508,7 +17431,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17524,7 +17447,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17539,9 +17462,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17549,7 +17470,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17560,7 +17481,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17569,7 +17490,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17581,7 +17502,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17589,7 +17510,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17685,7 +17606,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17728,7 +17649,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18055,7 +17976,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18071,7 +17992,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18087,7 +18008,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18103,7 +18024,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18119,7 +18040,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18134,9 +18055,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>295</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18144,7 +18063,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18155,7 +18074,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18164,7 +18083,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18176,7 +18095,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18184,7 +18103,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18280,7 +18199,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18323,7 +18242,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18650,7 +18569,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18666,7 +18585,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18682,7 +18601,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18698,7 +18617,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18714,7 +18633,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18729,9 +18648,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18739,7 +18656,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18750,7 +18667,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18759,7 +18676,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18771,7 +18688,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18779,7 +18696,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18875,7 +18792,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18918,7 +18835,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19245,7 +19162,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19261,7 +19178,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19277,7 +19194,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19293,7 +19210,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19309,7 +19226,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19324,9 +19241,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19334,7 +19249,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19345,7 +19260,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19354,7 +19269,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19366,7 +19281,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19374,7 +19289,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19470,7 +19385,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19513,7 +19428,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19840,7 +19755,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19856,7 +19771,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19872,7 +19787,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19888,7 +19803,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19904,7 +19819,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19919,9 +19834,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19929,7 +19842,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19940,7 +19853,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19949,7 +19862,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19961,7 +19874,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19969,7 +19882,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20065,7 +19978,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20108,7 +20021,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20435,7 +20348,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20451,7 +20364,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20467,7 +20380,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20483,7 +20396,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20499,7 +20412,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20514,9 +20427,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20524,7 +20435,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20535,7 +20446,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20544,7 +20455,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20556,7 +20467,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20564,7 +20475,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20660,7 +20571,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20703,7 +20614,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21030,7 +20941,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21046,7 +20957,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21062,7 +20973,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21078,7 +20989,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21094,7 +21005,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21109,9 +21020,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21119,7 +21028,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21130,7 +21039,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21139,7 +21048,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21151,7 +21060,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21159,7 +21068,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21255,7 +21164,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21298,7 +21207,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21625,7 +21534,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21641,7 +21550,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21657,7 +21566,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21673,7 +21582,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21689,7 +21598,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21704,9 +21613,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21714,7 +21621,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21725,7 +21632,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21734,7 +21641,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21746,7 +21653,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21754,7 +21661,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21850,7 +21757,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21893,7 +21800,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22220,7 +22127,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22236,7 +22143,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22252,7 +22159,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22268,7 +22175,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22284,7 +22191,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22299,9 +22206,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22309,7 +22214,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22320,7 +22225,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22329,7 +22234,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22341,7 +22246,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22349,7 +22254,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22445,7 +22350,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22488,7 +22393,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22815,7 +22720,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22831,7 +22736,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22847,7 +22752,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22863,7 +22768,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22879,7 +22784,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22894,9 +22799,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22904,7 +22807,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22915,7 +22818,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22924,7 +22827,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22936,7 +22839,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22944,7 +22847,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23040,7 +22943,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23083,7 +22986,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23410,7 +23313,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23426,7 +23329,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23442,7 +23345,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23458,7 +23361,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23474,7 +23377,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23489,9 +23392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23499,7 +23400,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23510,7 +23411,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23519,7 +23420,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23531,7 +23432,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23635,7 +23536,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23678,7 +23579,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24005,7 +23906,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24021,7 +23922,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24037,7 +23938,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24053,7 +23954,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24069,7 +23970,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24084,9 +23985,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24094,7 +23993,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24105,7 +24004,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24114,7 +24013,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24126,7 +24025,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24134,7 +24033,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24230,7 +24129,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24273,7 +24172,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24600,7 +24499,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24616,7 +24515,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24632,7 +24531,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24648,7 +24547,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24664,7 +24563,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24679,9 +24578,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24689,7 +24586,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24700,7 +24597,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24709,7 +24606,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24721,7 +24618,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24729,7 +24626,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24825,7 +24722,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24868,7 +24765,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25195,7 +25092,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25211,7 +25108,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25227,7 +25124,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25243,7 +25140,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25259,7 +25156,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25274,9 +25171,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25284,7 +25179,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25295,7 +25190,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25304,7 +25199,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25316,7 +25211,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25324,7 +25219,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25420,7 +25315,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25463,7 +25358,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25790,7 +25685,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25806,7 +25701,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25822,7 +25717,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25838,7 +25733,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25854,7 +25749,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25869,9 +25764,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25879,7 +25772,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25890,7 +25783,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25899,7 +25792,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25911,7 +25804,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25919,7 +25812,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26015,7 +25908,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26058,7 +25951,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26385,7 +26278,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26401,7 +26294,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26417,7 +26310,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26433,7 +26326,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26449,7 +26342,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26464,9 +26357,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26474,7 +26365,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26485,7 +26376,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26494,7 +26385,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26506,7 +26397,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26514,7 +26405,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26610,7 +26501,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26653,7 +26544,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26980,7 +26871,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26996,7 +26887,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27012,7 +26903,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27028,7 +26919,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27044,7 +26935,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27059,9 +26950,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27069,7 +26958,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27080,7 +26969,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27089,7 +26978,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27101,7 +26990,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27109,7 +26998,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27205,7 +27094,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27248,7 +27137,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27575,7 +27464,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27591,7 +27480,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27607,7 +27496,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27623,7 +27512,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27639,7 +27528,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27654,9 +27543,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>402</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27664,7 +27551,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27675,7 +27562,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27684,7 +27571,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27696,7 +27583,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27704,7 +27591,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27800,7 +27687,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27843,7 +27730,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28170,7 +28057,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28186,7 +28073,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28202,7 +28089,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28218,7 +28105,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28234,7 +28121,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28249,9 +28136,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28259,7 +28144,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28270,7 +28155,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28279,7 +28164,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28291,7 +28176,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28299,7 +28184,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28395,7 +28280,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28438,7 +28323,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28765,7 +28650,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28781,7 +28666,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28797,7 +28682,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28813,7 +28698,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28829,7 +28714,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28844,9 +28729,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28854,7 +28737,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28865,7 +28748,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28874,7 +28757,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28886,7 +28769,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28894,7 +28777,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28990,7 +28873,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29033,7 +28916,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29360,7 +29243,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29376,7 +29259,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29392,7 +29275,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29408,7 +29291,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29424,7 +29307,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29439,9 +29322,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29449,7 +29330,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29460,7 +29341,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29469,7 +29350,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29481,7 +29362,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29489,7 +29370,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29585,7 +29466,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29628,7 +29509,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30011,7 +29892,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30027,7 +29908,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30043,7 +29924,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30059,7 +29940,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30075,7 +29956,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30090,9 +29971,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30100,7 +29979,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30111,7 +29990,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30120,7 +29999,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30132,7 +30011,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30140,7 +30019,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30236,7 +30115,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30279,7 +30158,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30606,7 +30485,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30622,7 +30501,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30638,7 +30517,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30654,7 +30533,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30670,7 +30549,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30685,9 +30564,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30695,7 +30572,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30706,7 +30583,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30715,7 +30592,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30727,7 +30604,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30831,7 +30708,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30874,7 +30751,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31201,7 +31078,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31217,7 +31094,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31233,7 +31110,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31249,7 +31126,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31265,7 +31142,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31280,9 +31157,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31290,7 +31165,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31301,7 +31176,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31310,7 +31185,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31322,7 +31197,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31330,7 +31205,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31426,7 +31301,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31469,7 +31344,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31796,7 +31671,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31812,7 +31687,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31828,7 +31703,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31844,7 +31719,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31860,7 +31735,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31875,9 +31750,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31885,7 +31758,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31896,7 +31769,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31905,7 +31778,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31917,7 +31790,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32021,7 +31894,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32064,7 +31937,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
